--- a/exposan/biogenic_refinery/results/sysB_Best_ECON.xlsx
+++ b/exposan/biogenic_refinery/results/sysB_Best_ECON.xlsx
@@ -15875,7 +15875,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="E11">
-        <v>16.76029239037265</v>
+        <v>16.76029239037264</v>
       </c>
       <c r="F11">
         <v>-1.709501833164727</v>
@@ -26312,7 +26312,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="E5">
-        <v>13.08173614871941</v>
+        <v>13.0817361487194</v>
       </c>
       <c r="F5">
         <v>-30.1048109751388</v>
@@ -46765,7 +46765,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="OT11">
-        <v>16.76029239037265</v>
+        <v>16.76029239037264</v>
       </c>
       <c r="OU11">
         <v>-1.709501833164727</v>
